--- a/published-data/fonds-solidarite/fds-2021-02-07/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-07/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>123210</v>
+        <v>123209</v>
       </c>
       <c r="D8" t="n">
         <v>38516</v>
       </c>
       <c r="E8" t="n">
-        <v>267482682</v>
+        <v>267472682</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>139392</v>
+        <v>139393</v>
       </c>
       <c r="D10" t="n">
-        <v>28150</v>
+        <v>28151</v>
       </c>
       <c r="E10" t="n">
-        <v>530538909</v>
+        <v>530548909</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23697</v>
+        <v>23698</v>
       </c>
       <c r="D13" t="n">
-        <v>7767</v>
+        <v>7768</v>
       </c>
       <c r="E13" t="n">
-        <v>44023733</v>
+        <v>44025148</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>75729</v>
+        <v>75728</v>
       </c>
       <c r="D14" t="n">
         <v>23909</v>
       </c>
       <c r="E14" t="n">
-        <v>149751876</v>
+        <v>149750461</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54258</v>
+        <v>54256</v>
       </c>
       <c r="D18" t="n">
-        <v>23501</v>
+        <v>23500</v>
       </c>
       <c r="E18" t="n">
-        <v>72584786</v>
+        <v>72581991</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14320</v>
+        <v>14319</v>
       </c>
       <c r="D33" t="n">
         <v>4647</v>
       </c>
       <c r="E33" t="n">
-        <v>28711105</v>
+        <v>28709605</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21511</v>
+        <v>21512</v>
       </c>
       <c r="D52" t="n">
         <v>7149</v>
       </c>
       <c r="E52" t="n">
-        <v>45370081</v>
+        <v>45371495</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11839</v>
+        <v>11840</v>
       </c>
       <c r="D54" t="n">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="E54" t="n">
-        <v>19138313</v>
+        <v>19139113</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19377</v>
+        <v>19376</v>
       </c>
       <c r="D55" t="n">
         <v>8827</v>
       </c>
       <c r="E55" t="n">
-        <v>25933541</v>
+        <v>25932741</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>29400</v>
+        <v>29399</v>
       </c>
       <c r="D63" t="n">
-        <v>9594</v>
+        <v>9593</v>
       </c>
       <c r="E63" t="n">
-        <v>59322218</v>
+        <v>59320718</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13448</v>
+        <v>13449</v>
       </c>
       <c r="D69" t="n">
         <v>4280</v>
       </c>
       <c r="E69" t="n">
-        <v>26545672</v>
+        <v>26547172</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>30408</v>
+        <v>30407</v>
       </c>
       <c r="D156" t="n">
-        <v>9558</v>
+        <v>9557</v>
       </c>
       <c r="E156" t="n">
-        <v>58889123</v>
+        <v>58879753</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>47588</v>
+        <v>47589</v>
       </c>
       <c r="D162" t="n">
         <v>13820</v>
       </c>
       <c r="E162" t="n">
-        <v>78205209</v>
+        <v>78214579</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>360939</v>
+        <v>360938</v>
       </c>
       <c r="D169" t="n">
         <v>59339</v>
       </c>
       <c r="E169" t="n">
-        <v>723191594</v>
+        <v>723181594</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7480,10 +7480,10 @@
         <v>227920</v>
       </c>
       <c r="D174" t="n">
-        <v>65756</v>
+        <v>65757</v>
       </c>
       <c r="E174" t="n">
-        <v>418615992</v>
+        <v>418616368</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7682,13 +7682,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>137238</v>
+        <v>137239</v>
       </c>
       <c r="D179" t="n">
-        <v>27284</v>
+        <v>27285</v>
       </c>
       <c r="E179" t="n">
-        <v>280116135</v>
+        <v>280117395</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -10142,13 +10142,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>42833</v>
+        <v>42834</v>
       </c>
       <c r="D239" t="n">
         <v>9011</v>
       </c>
       <c r="E239" t="n">
-        <v>156258843</v>
+        <v>156268843</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10306,13 +10306,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>17901</v>
+        <v>17900</v>
       </c>
       <c r="D243" t="n">
-        <v>5674</v>
+        <v>5673</v>
       </c>
       <c r="E243" t="n">
-        <v>37264909</v>
+        <v>37254909</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10511,13 +10511,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>29599</v>
+        <v>29598</v>
       </c>
       <c r="D248" t="n">
         <v>8592</v>
       </c>
       <c r="E248" t="n">
-        <v>51916975</v>
+        <v>51916872</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -11044,13 +11044,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>50833</v>
+        <v>50834</v>
       </c>
       <c r="D261" t="n">
-        <v>16404</v>
+        <v>16405</v>
       </c>
       <c r="E261" t="n">
-        <v>99324409</v>
+        <v>99325285</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -11208,13 +11208,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>38784</v>
+        <v>38786</v>
       </c>
       <c r="D265" t="n">
-        <v>17016</v>
+        <v>17017</v>
       </c>
       <c r="E265" t="n">
-        <v>51103654</v>
+        <v>51106449</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11249,13 +11249,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>40451</v>
+        <v>40450</v>
       </c>
       <c r="D266" t="n">
-        <v>8475</v>
+        <v>8474</v>
       </c>
       <c r="E266" t="n">
-        <v>78774514</v>
+        <v>78774364</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11290,13 +11290,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>66602</v>
+        <v>66601</v>
       </c>
       <c r="D267" t="n">
         <v>19687</v>
       </c>
       <c r="E267" t="n">
-        <v>111885285</v>
+        <v>111884409</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11577,13 +11577,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>114391</v>
+        <v>114390</v>
       </c>
       <c r="D274" t="n">
-        <v>34564</v>
+        <v>34563</v>
       </c>
       <c r="E274" t="n">
-        <v>227404424</v>
+        <v>227403209</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11659,13 +11659,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>112793</v>
+        <v>112794</v>
       </c>
       <c r="D276" t="n">
         <v>22450</v>
       </c>
       <c r="E276" t="n">
-        <v>389925808</v>
+        <v>389927023</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11946,13 +11946,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>38105</v>
+        <v>38106</v>
       </c>
       <c r="D283" t="n">
-        <v>9583</v>
+        <v>9584</v>
       </c>
       <c r="E283" t="n">
-        <v>54837208</v>
+        <v>54837800</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11987,13 +11987,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>43154</v>
+        <v>43153</v>
       </c>
       <c r="D284" t="n">
-        <v>19191</v>
+        <v>19190</v>
       </c>
       <c r="E284" t="n">
-        <v>57105998</v>
+        <v>57104588</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -12028,13 +12028,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>48379</v>
+        <v>48380</v>
       </c>
       <c r="D285" t="n">
-        <v>9713</v>
+        <v>9714</v>
       </c>
       <c r="E285" t="n">
-        <v>95025644</v>
+        <v>95026612</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12602,13 +12602,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>27337</v>
+        <v>27336</v>
       </c>
       <c r="D299" t="n">
         <v>8887</v>
       </c>
       <c r="E299" t="n">
-        <v>56889464</v>
+        <v>56885524</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12643,13 +12643,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>9990</v>
+        <v>9991</v>
       </c>
       <c r="D300" t="n">
         <v>3227</v>
       </c>
       <c r="E300" t="n">
-        <v>21690236</v>
+        <v>21694176</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12807,13 +12807,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>34290</v>
+        <v>34291</v>
       </c>
       <c r="D304" t="n">
-        <v>10132</v>
+        <v>10133</v>
       </c>
       <c r="E304" t="n">
-        <v>62643811</v>
+        <v>62643914</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -13340,13 +13340,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>65761</v>
+        <v>65759</v>
       </c>
       <c r="D317" t="n">
         <v>20134</v>
       </c>
       <c r="E317" t="n">
-        <v>127232012</v>
+        <v>127218841</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13381,13 +13381,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>37004</v>
+        <v>37003</v>
       </c>
       <c r="D318" t="n">
         <v>10436</v>
       </c>
       <c r="E318" t="n">
-        <v>76894359</v>
+        <v>76892666</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -13545,13 +13545,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>46045</v>
+        <v>46048</v>
       </c>
       <c r="D322" t="n">
-        <v>9118</v>
+        <v>9120</v>
       </c>
       <c r="E322" t="n">
-        <v>94683117</v>
+        <v>94697981</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
